--- a/Exp4/ultrasonic.xlsx
+++ b/Exp4/ultrasonic.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\機電系統原理\Exp4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E095F441-FE83-47F3-BB77-69043C97BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="calib." sheetId="1" r:id="rId1"/>
+    <sheet name="pizza" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,15 +25,75 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+  <si>
+    <t>measured_distance(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_distance(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measured dist. (cm)</t>
+  </si>
+  <si>
+    <t>positive valid dist. (cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative valid dist. (cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid dist .(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative valid angle (°)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>positive valid angle (°)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +116,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +140,2877 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>ultrasonic sensor calibration</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12907320197415517"/>
+          <c:y val="0.16958202479025383"/>
+          <c:w val="0.82665090607693181"/>
+          <c:h val="0.62401802375859083"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9198902108281163E-2"/>
+                  <c:y val="1.1535508928435969E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'calib.'!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'calib.'!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2003-4A4B-931A-86E0B0D4BE1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="510457759"/>
+        <c:axId val="510448159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="510457759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>measured dist. (cm)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38934238782353164"/>
+              <c:y val="0.87914250603067678"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510448159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="510448159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>real dist. (cm)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.057039520777606E-2"/>
+              <c:y val="0.32963542851941197"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510457759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Pizza  plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45860284605433377"/>
+          <c:y val="3.643724696356275E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>pizza!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pizza!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8DEA-4087-B716-66B0D34F5957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>pizza!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pizza!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8DEA-4087-B716-66B0D34F5957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>pizza!$F$8:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pizza!$G$8:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8DEA-4087-B716-66B0D34F5957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="510889071"/>
+        <c:axId val="510889551"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-TW"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>pizza!$F$2:$F$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>80</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>pizza!$G$2:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8DEA-4087-B716-66B0D34F5957}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-TW"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>pizza!$F$2:$F$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>80</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>pizza!$H$2:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8DEA-4087-B716-66B0D34F5957}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="510889071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="-15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>valid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> dist. </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(cm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47341516333744188"/>
+              <c:y val="0.89064777327935218"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510889551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="510889551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>measured</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> dist. </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(cm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510889071"/>
+        <c:crossesAt val="-15"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D346826-56C5-CB6F-2022-03A46D20B606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41CF99A-8F57-7A9C-C994-26683812C492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3275,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>11.8</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>18.7</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>22.1</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f>(C7+D7)/2</f>
+        <v>28.9</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" ref="A8:A17" si="0">(C8+D8)/2</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>30.6</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>39.099999999999994</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>37.4</v>
+      </c>
+      <c r="D9">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>44.2</v>
+      </c>
+      <c r="D10">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>45.900000000000006</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>47.6</v>
+      </c>
+      <c r="D11">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>52.7</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>56.099999999999994</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>57.8</v>
+      </c>
+      <c r="D13">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>63.4</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>62.2</v>
+      </c>
+      <c r="D14">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>66.3</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D16">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="B17">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>74.8</v>
+      </c>
+      <c r="D17">
+        <v>78.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4AAC0B-A7FA-4F62-BD38-E62AE1E02C1E}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" customWidth="1"/>
+    <col min="6" max="6" width="18.09765625" customWidth="1"/>
+    <col min="7" max="7" width="20.296875" customWidth="1"/>
+    <col min="8" max="8" width="21.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2.86</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>7.12</v>
+      </c>
+      <c r="C3">
+        <v>6.41</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="C4">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="C5">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>12.5</v>
+      </c>
+      <c r="H6">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9">
+        <v>-15</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>